--- a/biology/Botanique/Derris/Derris.xlsx
+++ b/biology/Botanique/Derris/Derris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Derris est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales d'Amérique du Sud, d'Afrique de l'Est et de Madagascar, d'Asie du Sud et du Sud-Est, et d'Australasie, qui comprend environ 90 espèces acceptées.
-Ce sont des lianes ou, plus rarement, des arbustes dressés ou des arbres, aux feuilles composées imparipennées et aux fleurs de type papilionacé rosâtres. Le fruit est une gousse globuleuse allongée, indéhiscente, contenant de une à plusieurs graines réniformes[3].
-L'espèce Derris elliptica, dont on extrait la roténone, appartenait à ce genre mais a été renommé récemment en Paraderris elliptica[4].
+Ce sont des lianes ou, plus rarement, des arbustes dressés ou des arbres, aux feuilles composées imparipennées et aux fleurs de type papilionacé rosâtres. Le fruit est une gousse globuleuse allongée, indéhiscente, contenant de une à plusieurs graines réniformes.
+L'espèce Derris elliptica, dont on extrait la roténone, appartenait à ce genre mais a été renommé récemment en Paraderris elliptica.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (1 décembre 2018)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 décembre 2018) :
 Derris acuminata Benth.
 Derris albo-rubra Hemsl.
 Derris amoena Benth.
